--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Flt1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Flt1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H2">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I2">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J2">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N2">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O2">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P2">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q2">
-        <v>967.1931030905927</v>
+        <v>7901.795215737186</v>
       </c>
       <c r="R2">
-        <v>3868.772412362371</v>
+        <v>31607.18086294874</v>
       </c>
       <c r="S2">
-        <v>0.1542271778358568</v>
+        <v>0.8920872473842206</v>
       </c>
       <c r="T2">
-        <v>0.09417099706391339</v>
+        <v>0.8714156606251831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H3">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I3">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J3">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>0.235393</v>
       </c>
       <c r="N3">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O3">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P3">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q3">
-        <v>1.9323325451555</v>
+        <v>10.6486773444275</v>
       </c>
       <c r="R3">
-        <v>11.593995270933</v>
+        <v>63.892064066565</v>
       </c>
       <c r="S3">
-        <v>0.0003081268819302127</v>
+        <v>0.001202201398683906</v>
       </c>
       <c r="T3">
-        <v>0.0002822130583668439</v>
+        <v>0.001761515696660522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H4">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I4">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J4">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N4">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O4">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P4">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q4">
-        <v>4.804372505367666</v>
+        <v>85.62763797789249</v>
       </c>
       <c r="R4">
-        <v>28.826235032206</v>
+        <v>513.7658278673549</v>
       </c>
       <c r="S4">
-        <v>0.0007660981146446794</v>
+        <v>0.009667084729249622</v>
       </c>
       <c r="T4">
-        <v>0.0007016683860511576</v>
+        <v>0.0141646162699215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H5">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I5">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J5">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N5">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O5">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P5">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q5">
-        <v>13.9280416539245</v>
+        <v>145.301949468095</v>
       </c>
       <c r="R5">
-        <v>55.71216661569799</v>
+        <v>581.20779787238</v>
       </c>
       <c r="S5">
-        <v>0.002220944866336411</v>
+        <v>0.01640412243060909</v>
       </c>
       <c r="T5">
-        <v>0.00135610724012259</v>
+        <v>0.01602400351172025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H6">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I6">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J6">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N6">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O6">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P6">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q6">
-        <v>809.5085255836906</v>
+        <v>142.5221277480875</v>
       </c>
       <c r="R6">
-        <v>4857.051153502144</v>
+        <v>855.132766488525</v>
       </c>
       <c r="S6">
-        <v>0.1290830289586382</v>
+        <v>0.01609028950546804</v>
       </c>
       <c r="T6">
-        <v>0.118226998428277</v>
+        <v>0.02357616415911882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H7">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I7">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J7">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N7">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O7">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P7">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q7">
-        <v>20.657938737385</v>
+        <v>31.77605828579583</v>
       </c>
       <c r="R7">
-        <v>123.94763242431</v>
+        <v>190.656349714775</v>
       </c>
       <c r="S7">
-        <v>0.003294084274579957</v>
+        <v>0.003587414707032694</v>
       </c>
       <c r="T7">
-        <v>0.003017048015492162</v>
+        <v>0.005256429849263904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H8">
         <v>1.454409</v>
       </c>
       <c r="I8">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J8">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N8">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O8">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P8">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q8">
-        <v>57.12025859995949</v>
+        <v>84.68157845802601</v>
       </c>
       <c r="R8">
-        <v>342.7215515997569</v>
+        <v>508.089470748156</v>
       </c>
       <c r="S8">
-        <v>0.009108311724903747</v>
+        <v>0.009560277654414466</v>
       </c>
       <c r="T8">
-        <v>0.00834229228018429</v>
+        <v>0.01400811808330943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H9">
         <v>1.454409</v>
       </c>
       <c r="I9">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J9">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>0.235393</v>
       </c>
       <c r="N9">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O9">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P9">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q9">
         <v>0.114119232579</v>
@@ -1013,10 +1013,10 @@
         <v>1.027073093211</v>
       </c>
       <c r="S9">
-        <v>1.81972835840253E-05</v>
+        <v>1.288369405755375E-05</v>
       </c>
       <c r="T9">
-        <v>2.500030679916308E-05</v>
+        <v>2.831658988859646E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H10">
         <v>1.454409</v>
       </c>
       <c r="I10">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J10">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N10">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O10">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P10">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q10">
-        <v>0.2837354805779999</v>
+        <v>0.9176501472930001</v>
       </c>
       <c r="R10">
-        <v>2.553619325201999</v>
+        <v>8.258851325637</v>
       </c>
       <c r="S10">
-        <v>4.524403894280739E-05</v>
+        <v>0.0001035997481091346</v>
       </c>
       <c r="T10">
-        <v>6.215844519763537E-05</v>
+        <v>0.000227698016319185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H11">
         <v>1.454409</v>
       </c>
       <c r="I11">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J11">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N11">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O11">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P11">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q11">
-        <v>0.8225589476609998</v>
+        <v>1.557164935062</v>
       </c>
       <c r="R11">
-        <v>4.935353685965999</v>
+        <v>9.342989610372001</v>
       </c>
       <c r="S11">
-        <v>0.0001311640299088297</v>
+        <v>0.0001757989093258337</v>
       </c>
       <c r="T11">
-        <v>0.000120132984815894</v>
+        <v>0.0002575879038006991</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H12">
         <v>1.454409</v>
       </c>
       <c r="I12">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J12">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N12">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O12">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P12">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q12">
-        <v>47.807760593472</v>
+        <v>1.527374275515</v>
       </c>
       <c r="R12">
-        <v>430.269845341248</v>
+        <v>13.746368479635</v>
       </c>
       <c r="S12">
-        <v>0.007623354603566537</v>
+        <v>0.0001724356397462684</v>
       </c>
       <c r="T12">
-        <v>0.01047333262945267</v>
+        <v>0.0003789898511296962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H13">
         <v>1.454409</v>
       </c>
       <c r="I13">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J13">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N13">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O13">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P13">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q13">
-        <v>1.22001159753</v>
+        <v>0.340536131265</v>
       </c>
       <c r="R13">
-        <v>10.98010437777</v>
+        <v>3.064825181385</v>
       </c>
       <c r="S13">
-        <v>0.0001945412400200326</v>
+        <v>3.844543318080967E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002672701484885358</v>
+        <v>8.449778142877828E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H14">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I14">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J14">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N14">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O14">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P14">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q14">
-        <v>6.488238399244166</v>
+        <v>389.492239158345</v>
       </c>
       <c r="R14">
-        <v>38.929430395465</v>
+        <v>1557.96895663338</v>
       </c>
       <c r="S14">
-        <v>0.001034604872847132</v>
+        <v>0.04397242019336093</v>
       </c>
       <c r="T14">
-        <v>0.0009475934184592132</v>
+        <v>0.04295348431943467</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H15">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I15">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J15">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>0.235393</v>
       </c>
       <c r="N15">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O15">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P15">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q15">
-        <v>0.01296270018833333</v>
+        <v>0.5248904925675</v>
       </c>
       <c r="R15">
-        <v>0.116664301695</v>
+        <v>3.149342955405</v>
       </c>
       <c r="S15">
-        <v>2.067012947870166E-06</v>
+        <v>5.925844721464404E-05</v>
       </c>
       <c r="T15">
-        <v>2.839762188459874E-06</v>
+        <v>8.682795165818157E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H16">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I16">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J16">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N16">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O16">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P16">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q16">
-        <v>0.03222925605444444</v>
+        <v>4.2207244732725</v>
       </c>
       <c r="R16">
-        <v>0.29006330449</v>
+        <v>25.324346839635</v>
       </c>
       <c r="S16">
-        <v>5.139229373268795E-06</v>
+        <v>0.0004765062083398482</v>
       </c>
       <c r="T16">
-        <v>7.06052144814516E-06</v>
+        <v>0.0006981967966978944</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H17">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I17">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J17">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N17">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O17">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P17">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q17">
-        <v>0.09343372527833332</v>
+        <v>7.162167597015</v>
       </c>
       <c r="R17">
-        <v>0.5606023516699999</v>
+        <v>28.64867038806</v>
       </c>
       <c r="S17">
-        <v>1.489880326722965E-05</v>
+        <v>0.0008085856697729531</v>
       </c>
       <c r="T17">
-        <v>1.364579685391783E-05</v>
+        <v>0.0007898489947741376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H18">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I18">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J18">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N18">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O18">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P18">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q18">
-        <v>5.430440191751111</v>
+        <v>7.025145697987501</v>
       </c>
       <c r="R18">
-        <v>48.87396172576</v>
+        <v>42.15087418792501</v>
       </c>
       <c r="S18">
-        <v>0.0008659299394339625</v>
+        <v>0.0007931163383871744</v>
       </c>
       <c r="T18">
-        <v>0.001189656360108284</v>
+        <v>0.001162107181772012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H19">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I19">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J19">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N19">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O19">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P19">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q19">
-        <v>0.1385800115166667</v>
+        <v>1.5662931973625</v>
       </c>
       <c r="R19">
-        <v>1.24722010365</v>
+        <v>9.397759184174999</v>
       </c>
       <c r="S19">
-        <v>2.209776311719021E-05</v>
+        <v>0.0001768294607596188</v>
       </c>
       <c r="T19">
-        <v>3.035897390696053E-05</v>
+        <v>0.000259097910800205</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H20">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I20">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J20">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N20">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O20">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P20">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q20">
-        <v>158.4092968146593</v>
+        <v>24.84961583353533</v>
       </c>
       <c r="R20">
-        <v>633.637187258637</v>
+        <v>149.097695001212</v>
       </c>
       <c r="S20">
-        <v>0.02525971154324819</v>
+        <v>0.002805441647404899</v>
       </c>
       <c r="T20">
-        <v>0.01542356058739658</v>
+        <v>0.00411065026490477</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H21">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I21">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J21">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>0.235393</v>
       </c>
       <c r="N21">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O21">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P21">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q21">
-        <v>0.3164822399085</v>
+        <v>0.03348802821633333</v>
       </c>
       <c r="R21">
-        <v>1.898893439451</v>
+        <v>0.301392253947</v>
       </c>
       <c r="S21">
-        <v>5.04657886209996E-05</v>
+        <v>3.780690602097164E-06</v>
       </c>
       <c r="T21">
-        <v>4.622155801665058E-05</v>
+        <v>8.309438643685337E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H22">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I22">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J22">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N22">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O22">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P22">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q22">
-        <v>0.7868721021469999</v>
+        <v>0.2692823403276666</v>
       </c>
       <c r="R22">
-        <v>4.721232612882</v>
+        <v>2.423541062949</v>
       </c>
       <c r="S22">
-        <v>0.0001254734584480726</v>
+        <v>3.04011095192218E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001149209969304648</v>
+        <v>6.681746295499679E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H23">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I23">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J23">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N23">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O23">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P23">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q23">
-        <v>2.2811693728515</v>
+        <v>0.4569464945073333</v>
       </c>
       <c r="R23">
-        <v>9.124677491406</v>
+        <v>2.741678967044</v>
       </c>
       <c r="S23">
-        <v>0.0003637518851367627</v>
+        <v>5.158778851609179E-05</v>
       </c>
       <c r="T23">
-        <v>0.0002221066234102028</v>
+        <v>7.558858218479929E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H24">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I24">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J24">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N24">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O24">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P24">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q24">
-        <v>132.583323736928</v>
+        <v>0.4482044934883334</v>
       </c>
       <c r="R24">
-        <v>795.4999424215681</v>
+        <v>4.033840441395</v>
       </c>
       <c r="S24">
-        <v>0.02114154017714176</v>
+        <v>5.060084473777949E-05</v>
       </c>
       <c r="T24">
-        <v>0.01936351244202059</v>
+        <v>0.0001112137064149056</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H25">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I25">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J25">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N25">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O25">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P25">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q25">
-        <v>3.383408689095</v>
+        <v>0.09992955012722221</v>
       </c>
       <c r="R25">
-        <v>20.30045213457</v>
+        <v>0.899365951145</v>
       </c>
       <c r="S25">
-        <v>0.0005395133318434778</v>
+        <v>1.128172457921898E-05</v>
       </c>
       <c r="T25">
-        <v>0.0004941396429141112</v>
+        <v>2.479568101499136E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H26">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I26">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J26">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N26">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O26">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P26">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q26">
-        <v>2124.332591048058</v>
+        <v>13.95496499271133</v>
       </c>
       <c r="R26">
-        <v>12745.99554628835</v>
+        <v>83.72978995626801</v>
       </c>
       <c r="S26">
-        <v>0.3387429245051055</v>
+        <v>0.00157547063266048</v>
       </c>
       <c r="T26">
-        <v>0.3102542567070358</v>
+        <v>0.002308445367055178</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H27">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I27">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J27">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>0.235393</v>
       </c>
       <c r="N27">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O27">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P27">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q27">
-        <v>4.244154542975666</v>
+        <v>0.01880609602033333</v>
       </c>
       <c r="R27">
-        <v>38.19739088678099</v>
+        <v>0.169254864183</v>
       </c>
       <c r="S27">
-        <v>0.0006767665891855079</v>
+        <v>2.123147711979442E-06</v>
       </c>
       <c r="T27">
-        <v>0.0009297746162462251</v>
+        <v>4.666387044310873E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H28">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I28">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J28">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N28">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O28">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P28">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q28">
-        <v>10.55227240566022</v>
+        <v>0.1512226851956666</v>
       </c>
       <c r="R28">
-        <v>94.97045165094198</v>
+        <v>1.361004166761</v>
       </c>
       <c r="S28">
-        <v>0.001682649708398229</v>
+        <v>1.707255443795593E-05</v>
       </c>
       <c r="T28">
-        <v>0.00231170541203231</v>
+        <v>3.752312964051605E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H29">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I29">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J29">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N29">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O29">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P29">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q29">
-        <v>30.59140177939766</v>
+        <v>0.2566104996193333</v>
       </c>
       <c r="R29">
-        <v>183.548410676386</v>
+        <v>1.539662997716</v>
       </c>
       <c r="S29">
-        <v>0.004878059559568008</v>
+        <v>2.897049948844365E-05</v>
       </c>
       <c r="T29">
-        <v>0.004467809165423948</v>
+        <v>4.244878573993983E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H30">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I30">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J30">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N30">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O30">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P30">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q30">
-        <v>1777.995870869667</v>
+        <v>0.2517011956283334</v>
       </c>
       <c r="R30">
-        <v>16001.96283782701</v>
+        <v>2.265310760655</v>
       </c>
       <c r="S30">
-        <v>0.2835165847355622</v>
+        <v>2.841625486879301E-05</v>
       </c>
       <c r="T30">
-        <v>0.389508773016114</v>
+        <v>6.245502506462226E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H31">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I31">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J31">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N31">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O31">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P31">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q31">
-        <v>45.37287578196334</v>
+        <v>0.05611810593388888</v>
       </c>
       <c r="R31">
-        <v>408.35588203767</v>
+        <v>0.505062953405</v>
       </c>
       <c r="S31">
-        <v>0.007235091482547158</v>
+        <v>6.335553539944347E-06</v>
       </c>
       <c r="T31">
-        <v>0.009939918007458966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.579566</v>
-      </c>
-      <c r="I32">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J32">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>117.8215865</v>
-      </c>
-      <c r="N32">
-        <v>235.643173</v>
-      </c>
-      <c r="O32">
-        <v>0.532002292588051</v>
-      </c>
-      <c r="P32">
-        <v>0.4324630118342522</v>
-      </c>
-      <c r="Q32">
-        <v>22.76179520048633</v>
-      </c>
-      <c r="R32">
-        <v>136.570771202918</v>
-      </c>
-      <c r="S32">
-        <v>0.003629562106089529</v>
-      </c>
-      <c r="T32">
-        <v>0.00332431177726299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.579566</v>
-      </c>
-      <c r="I33">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J33">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.235393</v>
-      </c>
-      <c r="N33">
-        <v>0.7061789999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.00106287497375686</v>
-      </c>
-      <c r="P33">
-        <v>0.001296011649079689</v>
-      </c>
-      <c r="Q33">
-        <v>0.04547525981266666</v>
-      </c>
-      <c r="R33">
-        <v>0.4092773383139999</v>
-      </c>
-      <c r="S33">
-        <v>7.251417488243824E-06</v>
-      </c>
-      <c r="T33">
-        <v>9.96234746234639E-06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.579566</v>
-      </c>
-      <c r="I34">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J34">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.5852593333333332</v>
-      </c>
-      <c r="N34">
-        <v>1.755778</v>
-      </c>
-      <c r="O34">
-        <v>0.002642633802014605</v>
-      </c>
-      <c r="P34">
-        <v>0.003222283218840886</v>
-      </c>
-      <c r="Q34">
-        <v>0.1130654702608889</v>
-      </c>
-      <c r="R34">
-        <v>1.017589232348</v>
-      </c>
-      <c r="S34">
-        <v>1.802925220754761E-05</v>
-      </c>
-      <c r="T34">
-        <v>2.476945718117307E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.579566</v>
-      </c>
-      <c r="I35">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J35">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.696687</v>
-      </c>
-      <c r="N35">
-        <v>3.393374</v>
-      </c>
-      <c r="O35">
-        <v>0.007661086568413696</v>
-      </c>
-      <c r="P35">
-        <v>0.00622767348460396</v>
-      </c>
-      <c r="Q35">
-        <v>0.3277806992806667</v>
-      </c>
-      <c r="R35">
-        <v>1.966684195684</v>
-      </c>
-      <c r="S35">
-        <v>5.226742419645423E-05</v>
-      </c>
-      <c r="T35">
-        <v>4.78716739774083E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.579566</v>
-      </c>
-      <c r="I36">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J36">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>98.61275733333333</v>
-      </c>
-      <c r="N36">
-        <v>295.838272</v>
-      </c>
-      <c r="O36">
-        <v>0.4452682614298566</v>
-      </c>
-      <c r="P36">
-        <v>0.5429357808085564</v>
-      </c>
-      <c r="Q36">
-        <v>19.05086710555022</v>
-      </c>
-      <c r="R36">
-        <v>171.457803949952</v>
-      </c>
-      <c r="S36">
-        <v>0.003037823015513961</v>
-      </c>
-      <c r="T36">
-        <v>0.004173507932583865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.579566</v>
-      </c>
-      <c r="I37">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J37">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>2.51651</v>
-      </c>
-      <c r="N37">
-        <v>7.549530000000001</v>
-      </c>
-      <c r="O37">
-        <v>0.01136285063790714</v>
-      </c>
-      <c r="P37">
-        <v>0.01385523900466678</v>
-      </c>
-      <c r="Q37">
-        <v>0.4861612115533334</v>
-      </c>
-      <c r="R37">
-        <v>4.375450903980001</v>
-      </c>
-      <c r="S37">
-        <v>7.752254579932484E-05</v>
-      </c>
-      <c r="T37">
-        <v>0.00010650421640605</v>
+        <v>1.39246764558699E-05</v>
       </c>
     </row>
   </sheetData>
